--- a/www/static/file.xlsx
+++ b/www/static/file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thirdlife/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/wecai360/www/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -157,72 +157,40 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1727200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>914400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7785100" y="139700"/>
-          <a:ext cx="3898900" cy="977900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19507</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7861300" y="1168400"/>
-          <a:ext cx="3657600" cy="1543507"/>
+          <a:off x="7810500" y="203200"/>
+          <a:ext cx="1206500" cy="1206500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -500,7 +468,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
